--- a/medicine/Enfance/Max_Lundgren/Max_Lundgren.xlsx
+++ b/medicine/Enfance/Max_Lundgren/Max_Lundgren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Lundgren (né le 22 mars 1937 à Landskrona et mort de le 27 mai 2005 à Malmö) est un auteur de bande dessinée et auteur jeunesse suédois. Plusieurs de ses ouvrages ont été adaptés pour la télévision ou le cinéma.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Œuvres choisies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Omin Hambbe i Slättköping, 1966
 Pojken med guldbyxorna, 1967
@@ -577,12 +593,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1965 : Prix Albert Bonniers pour les jeunes ou nouveaux auteurs (sv)
 1967 : Éfélant de l'Expressen (sv) pour Pojken med guldbyxorna (sv)
 1968 : Prix Nils Holgersson pour Pojken med guldbyxorna et Åshöjdens bollklubb
-1968 : (international) « Honor List »[1], de l' IBBY, pour Omin Hambbe it Slattkoping
+1968 : (international) « Honor List », de l' IBBY, pour Omin Hambbe it Slattkoping
 1983 : Bourse 91:an
 1987 : Prix littéraire et artistique d'ABF (sv) pour l'ensemble de son œuvre
 1991 : Prix Astrid Lindgren pour l'ensemble de son œuvre</t>
